--- a/data/trans_orig/P36_R3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36_R3-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71C904CA-80D0-45CC-9E73-E14BA80C1DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B67EFE3-84B8-4270-A51A-F73B95A312C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B180E1A3-8463-4D87-A9C4-1F6F082FE738}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78205432-48DF-4861-9D61-BBD9F1151229}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,223 +74,223 @@
     <t>16,03%</t>
   </si>
   <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
   </si>
   <si>
     <t>16,47%</t>
   </si>
   <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
   </si>
   <si>
     <t>16,3%</t>
   </si>
   <si>
-    <t>14,44%</t>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
   </si>
   <si>
     <t>18,51%</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
   </si>
   <si>
     <t>81,49%</t>
   </si>
   <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
   </si>
   <si>
     <t>82,24%</t>
   </si>
   <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2135D34A-FE0D-490D-B972-DCFE98D74230}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B993CCC1-A98D-4EA7-806B-F5D3C979ECD2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1172,10 +1172,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1190,13 +1190,13 @@
         <v>501635</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>754</v>
@@ -1205,13 +1205,13 @@
         <v>531084</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1267</v>
@@ -1220,13 +1220,13 @@
         <v>1032719</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1294,13 +1294,13 @@
         <v>531482</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>985</v>
@@ -1309,13 +1309,13 @@
         <v>663231</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>1555</v>
@@ -1324,13 +1324,13 @@
         <v>1194712</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,13 +1345,13 @@
         <v>2610230</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>4072</v>
@@ -1360,7 +1360,7 @@
         <v>2920419</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>80</v>

--- a/data/trans_orig/P36_R3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36_R3-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B67EFE3-84B8-4270-A51A-F73B95A312C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62A3A128-4FC3-4908-BBD4-3C450D5EFAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78205432-48DF-4861-9D61-BBD9F1151229}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4C1E7F37-A70B-410C-96C2-CB2C2C46436E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B993CCC1-A98D-4EA7-806B-F5D3C979ECD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A31B94A-3169-48E4-887C-8ED74F713AFA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
